--- a/利润表/300918.xlsx
+++ b/利润表/300918.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>121780764.76</v>
+        <v>121173920.19</v>
       </c>
       <c r="P2" t="n">
-        <v>1770830625.05</v>
+        <v>1997388921.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1600642731.73</v>
+        <v>1773812797.91</v>
       </c>
       <c r="R2" t="n">
-        <v>-9.762589738000001</v>
+        <v>19.4998330754</v>
       </c>
       <c r="S2" t="n">
-        <v>1235795590.52</v>
+        <v>1352264936.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1235795590.52</v>
+        <v>1352264936.42</v>
       </c>
       <c r="U2" t="n">
-        <v>-8.612908814200001</v>
+        <v>22.289110205</v>
       </c>
       <c r="V2" t="n">
-        <v>201913612.46</v>
+        <v>220630729.68</v>
       </c>
       <c r="W2" t="n">
-        <v>64210502.89</v>
+        <v>81733960.03</v>
       </c>
       <c r="X2" t="n">
-        <v>23910336.28</v>
+        <v>29854800.46</v>
       </c>
       <c r="Y2" t="n">
-        <v>138730256.05</v>
+        <v>159423923.94</v>
       </c>
       <c r="Z2" t="n">
-        <v>147882394.16</v>
+        <v>159804469.48</v>
       </c>
       <c r="AA2" t="n">
-        <v>26847147.04</v>
+        <v>38687693.25</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>20593020.65</v>
+        <v>28394407.5</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-11.3427232088</v>
+        <v>20.0330962899</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-12.980277601114</v>
+        <v>36.53770105913</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.500804603044</v>
+        <v>31.640847270079</v>
       </c>
       <c r="AS2" t="n">
-        <v>109081974.71</v>
+        <v>115848479.87</v>
       </c>
       <c r="AT2" t="n">
-        <v>-5.840801603606</v>
+        <v>22.555864322789</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300918.xlsx
+++ b/利润表/300918.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>121173920.19</v>
+        <v>49097516.83</v>
       </c>
       <c r="P2" t="n">
-        <v>1997388921.86</v>
+        <v>646129750.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>1773812797.91</v>
+        <v>558798267.46</v>
       </c>
       <c r="R2" t="n">
-        <v>19.4998330754</v>
+        <v>-27.8537473766</v>
       </c>
       <c r="S2" t="n">
-        <v>1352264936.42</v>
+        <v>438334064.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1352264936.42</v>
+        <v>438334064.1</v>
       </c>
       <c r="U2" t="n">
-        <v>22.289110205</v>
+        <v>-26.8166508065</v>
       </c>
       <c r="V2" t="n">
-        <v>220630729.68</v>
+        <v>60705688.34</v>
       </c>
       <c r="W2" t="n">
-        <v>81733960.03</v>
+        <v>25697899.9</v>
       </c>
       <c r="X2" t="n">
-        <v>29854800.46</v>
+        <v>8076502.46</v>
       </c>
       <c r="Y2" t="n">
-        <v>159423923.94</v>
+        <v>53565643.74</v>
       </c>
       <c r="Z2" t="n">
-        <v>159804469.48</v>
+        <v>55792894.12</v>
       </c>
       <c r="AA2" t="n">
-        <v>38687693.25</v>
+        <v>6860857.31</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>28394407.5</v>
+        <v>7618470.97</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>20.0330962899</v>
+        <v>-26.9309106621</v>
       </c>
       <c r="AQ2" t="n">
-        <v>36.53770105913</v>
+        <v>-36.436252726036</v>
       </c>
       <c r="AR2" t="n">
-        <v>31.640847270079</v>
+        <v>-27.879787061644</v>
       </c>
       <c r="AS2" t="n">
-        <v>115848479.87</v>
+        <v>42907748.31</v>
       </c>
       <c r="AT2" t="n">
-        <v>22.555864322789</v>
+        <v>-34.719031574241</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300918.xlsx
+++ b/利润表/300918.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>49097516.83</v>
+        <v>92048875.94</v>
       </c>
       <c r="P2" t="n">
-        <v>646129750.46</v>
+        <v>1664031824.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>558798267.46</v>
+        <v>1484364247.43</v>
       </c>
       <c r="R2" t="n">
-        <v>-27.8537473766</v>
+        <v>6.2593855874</v>
       </c>
       <c r="S2" t="n">
-        <v>438334064.1</v>
+        <v>1105793421.96</v>
       </c>
       <c r="T2" t="n">
-        <v>438334064.1</v>
+        <v>1105793421.96</v>
       </c>
       <c r="U2" t="n">
-        <v>-26.8166508065</v>
+        <v>2.6156152185</v>
       </c>
       <c r="V2" t="n">
-        <v>60705688.34</v>
+        <v>194294912.29</v>
       </c>
       <c r="W2" t="n">
-        <v>25697899.9</v>
+        <v>86061585.89</v>
       </c>
       <c r="X2" t="n">
-        <v>8076502.46</v>
+        <v>21318786.15</v>
       </c>
       <c r="Y2" t="n">
-        <v>53565643.74</v>
+        <v>116761834.06</v>
       </c>
       <c r="Z2" t="n">
-        <v>55792894.12</v>
+        <v>118738221.57</v>
       </c>
       <c r="AA2" t="n">
-        <v>6860857.31</v>
+        <v>27069610.51</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>7618470.97</v>
+        <v>27871464.87</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-26.9309106621</v>
+        <v>6.7367419726</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-36.436252726036</v>
+        <v>11.35286946149</v>
       </c>
       <c r="AR2" t="n">
-        <v>-27.879787061644</v>
+        <v>11.409100070831</v>
       </c>
       <c r="AS2" t="n">
-        <v>42907748.31</v>
+        <v>94527096.39</v>
       </c>
       <c r="AT2" t="n">
-        <v>-34.719031574241</v>
+        <v>15.927981173732</v>
       </c>
     </row>
   </sheetData>
